--- a/Data Files/Login Cash and Management System.xlsx
+++ b/Data Files/Login Cash and Management System.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7650"/>
+    <workbookView windowWidth="19200" windowHeight="7510"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>NIK</t>
   </si>
@@ -53,17 +66,23 @@
   </si>
   <si>
     <t>Jabo</t>
+  </si>
+  <si>
+    <t>Admin Area</t>
+  </si>
+  <si>
+    <t>JATIM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -523,19 +542,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1208,15 +1227,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14545454545454" defaultRowHeight="14.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9.57142857142857"/>
+    <col min="1" max="1" width="9.57272727272727"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1301,6 +1320,48 @@
       </c>
       <c r="D6" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>21014976</v>
+      </c>
+      <c r="B7">
+        <v>123</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>99000051</v>
+      </c>
+      <c r="B8">
+        <v>123</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>16002387</v>
+      </c>
+      <c r="B9">
+        <v>123</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
